--- a/cloud_final/todo/TODO.xlsx
+++ b/cloud_final/todo/TODO.xlsx
@@ -8,12 +8,13 @@
     <sheet name="Résumé de l’exportation" sheetId="1" r:id="rId4"/>
     <sheet name="Feuille 1 - TO DO LIST (Fournis" sheetId="2" r:id="rId5"/>
     <sheet name="TO DO V2 - TO DO List" sheetId="3" r:id="rId6"/>
+    <sheet name="TO DO V3  - TO Do V3" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>Ce document a été exporté depuis Numbers. Chaque tableau a été converti en feuille de calcul Excel. Tous les autres objets sur chaque feuille Numbers ont été placés sur des feuilles de calcul différentes. Veuillez noter que les calculs de formules peuvent être différents dans Excel.</t>
   </si>
@@ -47,10 +48,7 @@
     </r>
   </si>
   <si>
-    <t>TO DO V2</t>
-  </si>
-  <si>
-    <t>TO DO List</t>
+    <t>TO DO V2 - TO DO List</t>
   </si>
   <si>
     <r>
@@ -211,7 +209,7 @@
     <t>Collection</t>
   </si>
   <si>
-    <t>TO DO V2 - TO DO List</t>
+    <t>TO DO V2</t>
   </si>
   <si>
     <t>Duree Estimation (minutes)</t>
@@ -335,6 +333,120 @@
   </si>
   <si>
     <t xml:space="preserve">Mirindra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO DO V3 </t>
+  </si>
+  <si>
+    <t>TO Do V3</t>
+  </si>
+  <si>
+    <t>TO DO V3  - TO Do V3</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>TYPE APPLI</t>
+  </si>
+  <si>
+    <t>Back Office</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Affichage CRUD</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integration CRUD</t>
+  </si>
+  <si>
+    <t>Back - Front</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Fonction log</t>
+  </si>
+  <si>
+    <t>Depot et Retrait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Depot - Retrait temporaire </t>
+  </si>
+  <si>
+    <t>Insert in temporaire</t>
+  </si>
+  <si>
+    <t>Depot</t>
+  </si>
+  <si>
+    <t>Validation Depot</t>
+  </si>
+  <si>
+    <t>Retrait</t>
+  </si>
+  <si>
+    <t>Validation Retrait</t>
+  </si>
+  <si>
+    <t>Liste Depot invalidate</t>
+  </si>
+  <si>
+    <t>Liste Retrait invalidate</t>
+  </si>
+  <si>
+    <t>Page validation depot</t>
+  </si>
+  <si>
+    <t>Page validation retrait</t>
+  </si>
+  <si>
+    <t>Notification Depot / Retrait</t>
+  </si>
+  <si>
+    <t>Api rest pour avoir notif de depot ou retrait</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage des notifs </t>
+  </si>
+  <si>
+    <t>Front Office</t>
+  </si>
+  <si>
+    <t>Historique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historique des operation avec filtre date heure , crypto , utilisateur </t>
+  </si>
+  <si>
+    <t>Rajout image dans base</t>
+  </si>
+  <si>
+    <t>Page pour lister l’historique ( si on clique sur l’image -&gt; seul l’historique de l’utilisateur s’affiche)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historique par utilisateur </t>
   </si>
 </sst>
 </file>
@@ -385,7 +497,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,7 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -512,20 +624,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="33"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="34"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -535,11 +635,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -548,7 +648,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -556,17 +656,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -583,7 +683,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -591,12 +691,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,28 +716,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -637,7 +737,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -647,10 +747,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -807,13 +907,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="33"/>
+      </left>
+      <right style="thin">
+        <color indexed="33"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="33"/>
+      </left>
+      <right style="thin">
+        <color indexed="34"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="34"/>
+      </left>
+      <right style="thin">
+        <color indexed="33"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="33"/>
+      </left>
+      <right style="thin">
+        <color indexed="33"/>
+      </right>
+      <top style="thin">
+        <color indexed="33"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="33"/>
+      </left>
+      <right style="thin">
+        <color indexed="34"/>
+      </right>
+      <top style="thin">
+        <color indexed="33"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="34"/>
+      </left>
+      <right style="thin">
+        <color indexed="33"/>
+      </right>
+      <top style="thin">
+        <color indexed="33"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="33"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -835,28 +1025,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -874,20 +1064,20 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1000,40 +1190,88 @@
     <xf numFmtId="49" fontId="0" fillId="14" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="17" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="19" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="20" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="19" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="22" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="19" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="21" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="21" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="21" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="21" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1056,8 +1294,8 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -1070,15 +1308,15 @@
       <rgbColor rgb="ffb0eb9a"/>
       <rgbColor rgb="ffffec98"/>
       <rgbColor rgb="ff16e7cf"/>
-      <rgbColor rgb="ffff8a7a"/>
       <rgbColor rgb="ff3fb9ff"/>
-      <rgbColor rgb="ff3fb9ff"/>
-      <rgbColor rgb="ff88e168"/>
       <rgbColor rgb="ff88e168"/>
       <rgbColor rgb="ffdddddd"/>
       <rgbColor rgb="ffffe265"/>
       <rgbColor rgb="ffcc503e"/>
       <rgbColor rgb="ff8af3e7"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2113,7 +2351,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2231,22 +2469,42 @@
       <c r="D12" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13">
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="7"/>
       <c r="B13" t="s" s="3">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="20"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>60</v>
+        <v>8</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2257,9 +2515,11 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Résumé de l’exportation'!R1C1" tooltip="" display="Résumé de l’exportation"/>
     <hyperlink ref="D10" location="'Feuille 1 - TO DO LIST (Fournis'!R1C1" tooltip="" display="Feuille 1 - TO DO LIST (Fournis"/>
-    <hyperlink ref="D12" location="'TO DO V2 - TO DO List'!R1C1" tooltip="" display="TO DO V2 - TO DO List"/>
     <hyperlink ref="D12" location="'Feuille 1 - TO DO LIST (Fournis'!R1C1" tooltip="" display="Feuille 1 - TO DO LIST (Fournis"/>
     <hyperlink ref="D14" location="'TO DO V2 - TO DO List'!R1C1" tooltip="" display="TO DO V2 - TO DO List"/>
+    <hyperlink ref="D12" location="'Feuille 1 - TO DO LIST (Fournis'!R1C1" tooltip="" display="Feuille 1 - TO DO LIST (Fournis"/>
+    <hyperlink ref="D14" location="'TO DO V2 - TO DO List'!R1C1" tooltip="" display="TO DO V2 - TO DO List"/>
+    <hyperlink ref="D16" location="'TO DO V3  - TO Do V3'!R2C1" tooltip="" display="TO DO V3  - TO Do V3"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2283,7 +2543,7 @@
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2295,35 +2555,35 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="29">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="29">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="29">
+      <c r="C2" t="s" s="29">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="29">
+      <c r="D2" t="s" s="29">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="29">
+      <c r="E2" t="s" s="29">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="29">
+      <c r="F2" t="s" s="29">
         <v>16</v>
-      </c>
-      <c r="F2" t="s" s="29">
-        <v>17</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="31">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s" s="32">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="32">
+      <c r="C3" t="s" s="33">
         <v>19</v>
-      </c>
-      <c r="C3" t="s" s="33">
-        <v>20</v>
       </c>
       <c r="D3" s="34">
         <v>0.08333333333333333</v>
@@ -2337,16 +2597,16 @@
     </row>
     <row r="4" ht="56.05" customHeight="1">
       <c r="A4" t="s" s="37">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="38">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="38">
+      <c r="C4" t="s" s="39">
         <v>22</v>
       </c>
-      <c r="C4" t="s" s="39">
+      <c r="D4" t="s" s="39">
         <v>23</v>
-      </c>
-      <c r="D4" t="s" s="39">
-        <v>24</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="41">
@@ -2357,19 +2617,19 @@
     </row>
     <row r="5" ht="80.05" customHeight="1">
       <c r="A5" t="s" s="37">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="42">
         <v>0.08333333333333333</v>
       </c>
       <c r="E5" t="s" s="39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="41">
         <v>1</v>
@@ -2379,19 +2639,19 @@
     </row>
     <row r="6" ht="56.05" customHeight="1">
       <c r="A6" t="s" s="37">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s" s="38">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="43">
         <v>45646.0625</v>
       </c>
       <c r="E6" t="s" s="39">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="41">
         <v>1</v>
@@ -2401,16 +2661,16 @@
     </row>
     <row r="7" ht="44.05" customHeight="1">
       <c r="A7" t="s" s="37">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s" s="44">
         <v>29</v>
       </c>
-      <c r="B7" t="s" s="44">
+      <c r="C7" t="s" s="39">
         <v>30</v>
       </c>
-      <c r="C7" t="s" s="39">
+      <c r="D7" t="s" s="39">
         <v>31</v>
-      </c>
-      <c r="D7" t="s" s="39">
-        <v>32</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="41">
@@ -2421,13 +2681,13 @@
     </row>
     <row r="8" ht="44.05" customHeight="1">
       <c r="A8" t="s" s="37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s" s="44">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="42">
         <v>0.04166666666666666</v>
@@ -2441,13 +2701,13 @@
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s" s="44">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="42">
         <v>0.04166666666666666</v>
@@ -2461,16 +2721,16 @@
     </row>
     <row r="10" ht="44.05" customHeight="1">
       <c r="A10" t="s" s="37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s" s="44">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s" s="39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41">
@@ -2481,19 +2741,19 @@
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s" s="45">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s" s="39">
         <v>36</v>
       </c>
-      <c r="C11" t="s" s="39">
+      <c r="D11" t="s" s="39">
         <v>37</v>
       </c>
-      <c r="D11" t="s" s="39">
+      <c r="E11" t="s" s="39">
         <v>38</v>
-      </c>
-      <c r="E11" t="s" s="39">
-        <v>39</v>
       </c>
       <c r="F11" s="41">
         <v>1</v>
@@ -2503,16 +2763,16 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s" s="45">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s" s="39">
         <v>37</v>
-      </c>
-      <c r="D12" t="s" s="39">
-        <v>38</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41">
@@ -2523,16 +2783,16 @@
     </row>
     <row r="13" ht="56.05" customHeight="1">
       <c r="A13" t="s" s="37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s" s="45">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s" s="39">
         <v>37</v>
-      </c>
-      <c r="D13" t="s" s="39">
-        <v>38</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41">
@@ -2543,16 +2803,16 @@
     </row>
     <row r="14" ht="32.05" customHeight="1">
       <c r="A14" t="s" s="37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s" s="45">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s" s="39">
         <v>37</v>
-      </c>
-      <c r="D14" t="s" s="39">
-        <v>38</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="41">
@@ -2563,16 +2823,16 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s" s="45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s" s="39">
         <v>37</v>
-      </c>
-      <c r="D15" t="s" s="39">
-        <v>38</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="41">
@@ -2583,16 +2843,16 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="37">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B16" t="s" s="46">
+      <c r="C16" t="s" s="39">
         <v>45</v>
       </c>
-      <c r="C16" t="s" s="39">
-        <v>46</v>
-      </c>
       <c r="D16" t="s" s="39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="41">
@@ -2603,16 +2863,16 @@
     </row>
     <row r="17" ht="32.35" customHeight="1">
       <c r="A17" t="s" s="37">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s" s="46">
         <v>47</v>
       </c>
-      <c r="B17" t="s" s="46">
-        <v>48</v>
-      </c>
       <c r="C17" t="s" s="39">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s" s="39">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="41">
@@ -2623,16 +2883,16 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="37">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s" s="46">
         <v>49</v>
       </c>
-      <c r="B18" t="s" s="46">
+      <c r="C18" t="s" s="39">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s" s="39">
         <v>50</v>
-      </c>
-      <c r="C18" t="s" s="39">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s" s="39">
-        <v>51</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="41">
@@ -2643,16 +2903,16 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="37">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s" s="47">
         <v>52</v>
       </c>
-      <c r="B19" t="s" s="47">
+      <c r="C19" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="C19" t="s" s="39">
-        <v>54</v>
-      </c>
       <c r="D19" t="s" s="39">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41">
@@ -2664,11 +2924,11 @@
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" t="s" s="47">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" t="s" s="39">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="41">
@@ -2680,11 +2940,11 @@
     <row r="21" ht="42.2" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" t="s" s="47">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" t="s" s="39">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="41">
@@ -2695,16 +2955,16 @@
     </row>
     <row r="22" ht="46.3" customHeight="1">
       <c r="A22" t="s" s="37">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s" s="49">
         <v>58</v>
       </c>
-      <c r="B22" t="s" s="49">
-        <v>59</v>
-      </c>
       <c r="C22" t="s" s="39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s" s="39">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="41">
@@ -2825,7 +3085,7 @@
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="52">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="54"/>
@@ -2837,36 +3097,36 @@
     </row>
     <row r="2" ht="14.7" customHeight="1">
       <c r="A2" t="s" s="29">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="29">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="29">
+      <c r="C2" t="s" s="29">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s" s="29">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s" s="29">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s" s="29">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s" s="29">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="29">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s" s="29">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s" s="29">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s" s="29">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s" s="29">
-        <v>14</v>
-      </c>
       <c r="H2" t="s" s="29">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="34.7" customHeight="1">
       <c r="A3" t="s" s="56">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s" s="57">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="58">
         <v>30</v>
@@ -2875,16 +3135,16 @@
       <c r="E3" s="59"/>
       <c r="F3" s="59"/>
       <c r="G3" t="s" s="60">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="60"/>
     </row>
     <row r="4" ht="34.7" customHeight="1">
       <c r="A4" t="s" s="31">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="61">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="36">
         <v>30</v>
@@ -2893,16 +3153,16 @@
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
       <c r="G4" t="s" s="33">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="33"/>
     </row>
     <row r="5" ht="30.5" customHeight="1">
       <c r="A5" t="s" s="37">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s" s="46">
         <v>65</v>
-      </c>
-      <c r="B5" t="s" s="46">
-        <v>66</v>
       </c>
       <c r="C5" s="41">
         <v>15</v>
@@ -2911,38 +3171,38 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" t="s" s="39">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="39"/>
     </row>
     <row r="6" ht="30.5" customHeight="1">
       <c r="A6" t="s" s="37">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s" s="46">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="41">
         <v>40</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" t="s" s="62">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="41">
         <v>10</v>
       </c>
       <c r="G6" t="s" s="39">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="39"/>
     </row>
     <row r="7" ht="32.45" customHeight="1">
       <c r="A7" t="s" s="37">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s" s="46">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="41">
         <v>15</v>
@@ -2951,38 +3211,38 @@
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" t="s" s="39">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="39"/>
     </row>
     <row r="8" ht="32.45" customHeight="1">
       <c r="A8" t="s" s="37">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s" s="46">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="41">
         <v>40</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" t="s" s="62">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="41">
         <v>10</v>
       </c>
       <c r="G8" t="s" s="39">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="39"/>
     </row>
     <row r="9" ht="45.8" customHeight="1">
       <c r="A9" t="s" s="37">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s" s="46">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="41">
         <v>15</v>
@@ -2991,16 +3251,16 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" t="s" s="39">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="39"/>
     </row>
     <row r="10" ht="32.75" customHeight="1">
       <c r="A10" t="s" s="37">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s" s="63">
         <v>74</v>
-      </c>
-      <c r="B10" t="s" s="63">
-        <v>75</v>
       </c>
       <c r="C10" s="41">
         <v>15</v>
@@ -3009,16 +3269,16 @@
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" t="s" s="39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="39"/>
     </row>
     <row r="11" ht="33.25" customHeight="1">
       <c r="A11" t="s" s="37">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s" s="63">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="41">
         <v>15</v>
@@ -3027,60 +3287,60 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" t="s" s="39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="39"/>
     </row>
     <row r="12" ht="33.25" customHeight="1">
       <c r="A12" t="s" s="37">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s" s="63">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="41">
         <v>40</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" t="s" s="64">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="41">
         <v>10</v>
       </c>
       <c r="G12" t="s" s="39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="39"/>
     </row>
     <row r="13" ht="33.25" customHeight="1">
       <c r="A13" t="s" s="37">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s" s="63">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="41">
         <v>45</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" t="s" s="64">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="41">
         <v>5</v>
       </c>
       <c r="G13" t="s" s="39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="39"/>
     </row>
     <row r="14" ht="33.25" customHeight="1">
       <c r="A14" t="s" s="37">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s" s="63">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="41">
         <v>15</v>
@@ -3089,16 +3349,16 @@
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" t="s" s="39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="39"/>
     </row>
     <row r="15" ht="33.25" customHeight="1">
       <c r="A15" t="s" s="37">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s" s="63">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="41">
         <v>20</v>
@@ -3107,60 +3367,60 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" t="s" s="39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="39"/>
     </row>
     <row r="16" ht="33.25" customHeight="1">
       <c r="A16" t="s" s="37">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s" s="63">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="41">
         <v>40</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" t="s" s="64">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="41">
         <v>10</v>
       </c>
       <c r="G16" t="s" s="39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="39"/>
     </row>
     <row r="17" ht="33.25" customHeight="1">
       <c r="A17" t="s" s="37">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s" s="63">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="41">
         <v>45</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" t="s" s="64">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="41">
         <v>5</v>
       </c>
       <c r="G17" t="s" s="39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="39"/>
     </row>
     <row r="18" ht="31.65" customHeight="1">
       <c r="A18" t="s" s="37">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s" s="65">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="41">
         <v>20</v>
@@ -3169,23 +3429,23 @@
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" t="s" s="39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="39"/>
     </row>
     <row r="19" ht="27.95" customHeight="1">
       <c r="A19" t="s" s="37">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s" s="65">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="41">
         <v>15</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" t="s" s="66">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="41">
         <v>10</v>
@@ -3195,10 +3455,10 @@
     </row>
     <row r="20" ht="39.25" customHeight="1">
       <c r="A20" t="s" s="37">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s" s="65">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="41">
         <v>20</v>
@@ -3207,23 +3467,23 @@
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" t="s" s="39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="39"/>
     </row>
     <row r="21" ht="39.25" customHeight="1">
       <c r="A21" t="s" s="37">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s" s="65">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="41">
         <v>15</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" t="s" s="66">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="41">
         <v>10</v>
@@ -3233,32 +3493,32 @@
     </row>
     <row r="22" ht="49.1" customHeight="1">
       <c r="A22" t="s" s="37">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s" s="65">
         <v>93</v>
-      </c>
-      <c r="B22" t="s" s="65">
-        <v>94</v>
       </c>
       <c r="C22" s="41">
         <v>15</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" t="s" s="66">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="41">
         <v>45</v>
       </c>
       <c r="G22" t="s" s="39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" s="39"/>
     </row>
     <row r="23" ht="35.8" customHeight="1">
       <c r="A23" t="s" s="67">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s" s="68">
         <v>96</v>
-      </c>
-      <c r="B23" t="s" s="68">
-        <v>97</v>
       </c>
       <c r="C23" s="41">
         <v>30</v>
@@ -3267,16 +3527,16 @@
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" t="s" s="39">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="40"/>
     </row>
     <row r="24" ht="35.8" customHeight="1">
       <c r="A24" t="s" s="67">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s" s="65">
         <v>98</v>
-      </c>
-      <c r="B24" t="s" s="69">
-        <v>99</v>
       </c>
       <c r="C24" s="41">
         <v>60</v>
@@ -3285,16 +3545,16 @@
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" t="s" s="39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="40"/>
     </row>
     <row r="25" ht="35.8" customHeight="1">
       <c r="A25" t="s" s="67">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s" s="65">
         <v>98</v>
-      </c>
-      <c r="B25" t="s" s="69">
-        <v>99</v>
       </c>
       <c r="C25" s="41">
         <v>60</v>
@@ -3303,16 +3563,16 @@
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" t="s" s="39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="40"/>
     </row>
     <row r="26" ht="35.8" customHeight="1">
       <c r="A26" t="s" s="67">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s" s="65">
         <v>98</v>
-      </c>
-      <c r="B26" t="s" s="69">
-        <v>99</v>
       </c>
       <c r="C26" s="41">
         <v>60</v>
@@ -3321,16 +3581,16 @@
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" t="s" s="39">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="40"/>
     </row>
     <row r="27" ht="35.8" customHeight="1">
       <c r="A27" t="s" s="67">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s" s="65">
         <v>98</v>
-      </c>
-      <c r="B27" t="s" s="69">
-        <v>99</v>
       </c>
       <c r="C27" s="41">
         <v>60</v>
@@ -3339,12 +3599,12 @@
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" t="s" s="39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="40"/>
     </row>
     <row r="28" ht="35.8" customHeight="1">
-      <c r="A28" s="70"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="50"/>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -3354,10 +3614,10 @@
       <c r="H28" s="40"/>
     </row>
     <row r="29" ht="39.6" customHeight="1">
-      <c r="A29" t="s" s="71">
-        <v>100</v>
-      </c>
-      <c r="B29" s="72"/>
+      <c r="A29" t="s" s="70">
+        <v>99</v>
+      </c>
+      <c r="B29" s="71"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -3367,9 +3627,9 @@
     </row>
     <row r="30" ht="38.7" customHeight="1">
       <c r="A30" t="s" s="37">
-        <v>37</v>
-      </c>
-      <c r="B30" s="73">
+        <v>36</v>
+      </c>
+      <c r="B30" s="72">
         <f>C4+C14+C15+C16+C17+F16+F17+C27</f>
         <v>225</v>
       </c>
@@ -3382,9 +3642,9 @@
     </row>
     <row r="31" ht="36.05" customHeight="1">
       <c r="A31" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="B31" s="73">
+        <v>30</v>
+      </c>
+      <c r="B31" s="72">
         <f>C3+C10+C11+C12+C13+F12+F13+C25</f>
         <v>220</v>
       </c>
@@ -3397,9 +3657,9 @@
     </row>
     <row r="32" ht="43.65" customHeight="1">
       <c r="A32" t="s" s="37">
-        <v>46</v>
-      </c>
-      <c r="B32" s="73">
+        <v>45</v>
+      </c>
+      <c r="B32" s="72">
         <f>C5+C6+C7+C8+C9+F8+F6+C23+C26</f>
         <v>235</v>
       </c>
@@ -3412,9 +3672,9 @@
     </row>
     <row r="33" ht="55.15" customHeight="1">
       <c r="A33" t="s" s="37">
-        <v>101</v>
-      </c>
-      <c r="B33" s="73">
+        <v>100</v>
+      </c>
+      <c r="B33" s="72">
         <f>C18+C19+C20+C21+C22+F19+F21+F22+C24</f>
         <v>210</v>
       </c>
@@ -3515,4 +3775,1009 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="8" width="16.3516" style="73" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.55" customHeight="1">
+      <c r="A1" t="s" s="74">
+        <v>102</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" ht="26.7" customHeight="1">
+      <c r="A2" t="s" s="29">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="29">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s" s="29">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s" s="29">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s" s="29">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s" s="29">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="29">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" t="s" s="75">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s" s="76">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s" s="77">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="78">
+        <v>110</v>
+      </c>
+      <c r="E3" s="79">
+        <v>20</v>
+      </c>
+      <c r="F3" s="80"/>
+      <c r="G3" t="s" s="78">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s" s="78">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" t="s" s="81">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s" s="82">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s" s="83">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s" s="84">
+        <v>112</v>
+      </c>
+      <c r="E4" s="85">
+        <v>10</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="G4" t="s" s="84">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" t="s" s="81">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s" s="82">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s" s="83">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s" s="84">
+        <v>114</v>
+      </c>
+      <c r="E5" s="85">
+        <v>15</v>
+      </c>
+      <c r="F5" s="86"/>
+      <c r="G5" t="s" s="84">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" t="s" s="81">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s" s="82">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s" s="83">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="84">
+        <v>117</v>
+      </c>
+      <c r="E6" s="85">
+        <v>10</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" t="s" s="84">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" ht="26.05" customHeight="1">
+      <c r="A7" t="s" s="81">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s" s="82">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s" s="83">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="84">
+        <v>119</v>
+      </c>
+      <c r="E7" s="85">
+        <v>10</v>
+      </c>
+      <c r="F7" s="86"/>
+      <c r="G7" t="s" s="84">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" t="s" s="81">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s" s="82">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s" s="83">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="84">
+        <v>120</v>
+      </c>
+      <c r="E8" s="85">
+        <v>10</v>
+      </c>
+      <c r="F8" s="86"/>
+      <c r="G8" t="s" s="84">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" t="s" s="81">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s" s="82">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s" s="83">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="84">
+        <v>122</v>
+      </c>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" t="s" s="84">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" t="s" s="81">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s" s="82">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s" s="83">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s" s="84">
+        <v>124</v>
+      </c>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" t="s" s="84">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" ht="26.05" customHeight="1">
+      <c r="A11" t="s" s="81">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s" s="82">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s" s="83">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="84">
+        <v>125</v>
+      </c>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" t="s" s="84">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" ht="26.05" customHeight="1">
+      <c r="A12" t="s" s="81">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s" s="82">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s" s="83">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="84">
+        <v>126</v>
+      </c>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" t="s" s="84">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" ht="26.05" customHeight="1">
+      <c r="A13" t="s" s="81">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s" s="82">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s" s="83">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s" s="84">
+        <v>127</v>
+      </c>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" t="s" s="84">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" ht="26.05" customHeight="1">
+      <c r="A14" t="s" s="81">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s" s="82">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s" s="83">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s" s="84">
+        <v>128</v>
+      </c>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" t="s" s="84">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" ht="38.05" customHeight="1">
+      <c r="A15" t="s" s="81">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s" s="82">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s" s="83">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="84">
+        <v>130</v>
+      </c>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" t="s" s="84">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s" s="84">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" ht="26.05" customHeight="1">
+      <c r="A16" t="s" s="81">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s" s="82">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="83">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s" s="84">
+        <v>132</v>
+      </c>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" t="s" s="84">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s" s="84">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" ht="50.05" customHeight="1">
+      <c r="A17" t="s" s="81">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s" s="82">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s" s="83">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s" s="84">
+        <v>135</v>
+      </c>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" t="s" s="84">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" ht="26.05" customHeight="1">
+      <c r="A18" t="s" s="81">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s" s="82">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s" s="83">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s" s="84">
+        <v>136</v>
+      </c>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" t="s" s="84">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" ht="62.05" customHeight="1">
+      <c r="A19" t="s" s="81">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="82">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s" s="83">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s" s="84">
+        <v>137</v>
+      </c>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" t="s" s="84">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" ht="26.05" customHeight="1">
+      <c r="A20" t="s" s="81">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s" s="82">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s" s="83">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="84">
+        <v>138</v>
+      </c>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" t="s" s="84">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s" s="84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" ht="14.05" customHeight="1">
+      <c r="A21" s="87"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+    </row>
+    <row r="22" ht="14.05" customHeight="1">
+      <c r="A22" s="87"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+    </row>
+    <row r="23" ht="14.05" customHeight="1">
+      <c r="A23" s="87"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+    </row>
+    <row r="24" ht="14.05" customHeight="1">
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+    </row>
+    <row r="25" ht="14.05" customHeight="1">
+      <c r="A25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+    </row>
+    <row r="26" ht="14.05" customHeight="1">
+      <c r="A26" s="87"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+    </row>
+    <row r="27" ht="14.05" customHeight="1">
+      <c r="A27" s="87"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+    </row>
+    <row r="28" ht="14.05" customHeight="1">
+      <c r="A28" s="87"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+    </row>
+    <row r="29" ht="14.05" customHeight="1">
+      <c r="A29" s="87"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+    </row>
+    <row r="30" ht="14.05" customHeight="1">
+      <c r="A30" s="87"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+    </row>
+    <row r="31" ht="14.05" customHeight="1">
+      <c r="A31" s="87"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+    </row>
+    <row r="32" ht="14.05" customHeight="1">
+      <c r="A32" s="87"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+    </row>
+    <row r="33" ht="14.05" customHeight="1">
+      <c r="A33" s="87"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+    </row>
+    <row r="34" ht="14.05" customHeight="1">
+      <c r="A34" s="87"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+    </row>
+    <row r="35" ht="14.05" customHeight="1">
+      <c r="A35" s="87"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+    </row>
+    <row r="36" ht="14.05" customHeight="1">
+      <c r="A36" s="87"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+    </row>
+    <row r="37" ht="14.05" customHeight="1">
+      <c r="A37" s="87"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+    </row>
+    <row r="38" ht="14.05" customHeight="1">
+      <c r="A38" s="87"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+    </row>
+    <row r="39" ht="14.05" customHeight="1">
+      <c r="A39" s="87"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+    </row>
+    <row r="40" ht="14.05" customHeight="1">
+      <c r="A40" s="87"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+    </row>
+    <row r="41" ht="14.05" customHeight="1">
+      <c r="A41" s="87"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+    </row>
+    <row r="42" ht="14.05" customHeight="1">
+      <c r="A42" s="87"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+    </row>
+    <row r="43" ht="14.05" customHeight="1">
+      <c r="A43" s="87"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+    </row>
+    <row r="44" ht="14.05" customHeight="1">
+      <c r="A44" s="87"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+    </row>
+    <row r="45" ht="14.05" customHeight="1">
+      <c r="A45" s="87"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+    </row>
+    <row r="46" ht="14.05" customHeight="1">
+      <c r="A46" s="87"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+    </row>
+    <row r="47" ht="14.05" customHeight="1">
+      <c r="A47" s="87"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+    </row>
+    <row r="48" ht="14.05" customHeight="1">
+      <c r="A48" s="87"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+    </row>
+    <row r="49" ht="14.05" customHeight="1">
+      <c r="A49" s="87"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+    </row>
+    <row r="50" ht="14.05" customHeight="1">
+      <c r="A50" s="87"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+    </row>
+    <row r="51" ht="14.05" customHeight="1">
+      <c r="A51" s="87"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+    </row>
+    <row r="52" ht="14.05" customHeight="1">
+      <c r="A52" s="87"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+    </row>
+    <row r="53" ht="14.05" customHeight="1">
+      <c r="A53" s="87"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" ht="14.05" customHeight="1">
+      <c r="A54" s="87"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
+    </row>
+    <row r="55" ht="14.05" customHeight="1">
+      <c r="A55" s="87"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+    </row>
+    <row r="56" ht="14.05" customHeight="1">
+      <c r="A56" s="87"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+    </row>
+    <row r="57" ht="14.05" customHeight="1">
+      <c r="A57" s="87"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
+    </row>
+    <row r="58" ht="14.05" customHeight="1">
+      <c r="A58" s="87"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+    </row>
+    <row r="59" ht="14.05" customHeight="1">
+      <c r="A59" s="87"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
+    </row>
+    <row r="60" ht="14.05" customHeight="1">
+      <c r="A60" s="87"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="86"/>
+    </row>
+    <row r="61" ht="14.05" customHeight="1">
+      <c r="A61" s="87"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+    </row>
+    <row r="62" ht="14.05" customHeight="1">
+      <c r="A62" s="87"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+    </row>
+    <row r="63" ht="14.05" customHeight="1">
+      <c r="A63" s="87"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="86"/>
+    </row>
+    <row r="64" ht="14.05" customHeight="1">
+      <c r="A64" s="87"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+    </row>
+    <row r="65" ht="14.05" customHeight="1">
+      <c r="A65" s="87"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="86"/>
+    </row>
+    <row r="66" ht="14.05" customHeight="1">
+      <c r="A66" s="87"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+    </row>
+    <row r="67" ht="14.05" customHeight="1">
+      <c r="A67" s="87"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
+    </row>
+    <row r="68" ht="14.05" customHeight="1">
+      <c r="A68" s="87"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+    </row>
+    <row r="69" ht="14.05" customHeight="1">
+      <c r="A69" s="87"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+    </row>
+    <row r="70" ht="14.05" customHeight="1">
+      <c r="A70" s="87"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86"/>
+    </row>
+    <row r="71" ht="14.05" customHeight="1">
+      <c r="A71" s="87"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+    </row>
+    <row r="72" ht="14.05" customHeight="1">
+      <c r="A72" s="87"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
+    </row>
+    <row r="73" ht="14.05" customHeight="1">
+      <c r="A73" s="87"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>